--- a/src/test/java/com/mercury_tours/testData/MercuryToursTestData.xlsx
+++ b/src/test/java/com/mercury_tours/testData/MercuryToursTestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
     <t>username</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>INDIA</t>
+  </si>
+  <si>
+    <t>aac</t>
   </si>
 </sst>
 </file>
@@ -579,7 +582,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -677,10 +680,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -783,121 +786,119 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3">
+        <v>12312</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3">
+        <v>11111</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" t="s">
+        <v>53</v>
+      </c>
       <c r="N3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4">
-        <v>12312</v>
+        <v>38</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I4">
-        <v>11111</v>
+        <v>85858</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" t="s">
+        <v>43</v>
       </c>
       <c r="N4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>13213</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5">
-        <v>85858</v>
-      </c>
-      <c r="J5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" t="b">
-        <v>1</v>
-      </c>
-    </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>13213</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>48</v>
-      </c>
       <c r="K6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="K7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" t="s">
-        <v>50</v>
-      </c>
-      <c r="N7" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D5" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
